--- a/WebApplication5/Staff_Details.xlsx
+++ b/WebApplication5/Staff_Details.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3178036B-9546-47EB-B9E1-38EF6B7A4E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C17BE4FA-A634-49D4-9E39-34979970773B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Evaluation Warning" sheetId="2" r:id="rId4"/>
+    <sheet name="Evaluation Warning (1)" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Staff_Name</t>
   </si>
@@ -87,19 +89,36 @@
   </si>
   <si>
     <t>irish drive, tx</t>
+  </si>
+  <si>
+    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2023 Aspose Pty Ltd.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,17 +138,119 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -437,23 +558,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125E4023-CF13-4FBF-9302-FCFEBB03C58A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125E4023-CF13-4FBF-9302-FCFEBB03C58A}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.285714285714286" customWidth="1"/>
+    <col min="2" max="2" width="11.428571428571429" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.714285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -487,7 +608,7 @@
         <v>79415</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -504,7 +625,7 @@
         <v>79416</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -521,7 +642,7 @@
         <v>79876</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -541,4 +662,40 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ef7f2f68-e6c7-4ea3-b802-cc40fae7c4e4}">
+  <dimension ref="A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:1" ht="23.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49cd41e6-5a54-41f4-a1c5-8fe6de151a21}">
+  <dimension ref="A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:1" ht="23.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/WebApplication5/Staff_Details.xlsx
+++ b/WebApplication5/Staff_Details.xlsx
@@ -683,7 +683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49cd41e6-5a54-41f4-a1c5-8fe6de151a21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90aabc97-7d89-4f7a-84a9-353710f7ef93}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/WebApplication5/Staff_Details.xlsx
+++ b/WebApplication5/Staff_Details.xlsx
@@ -683,7 +683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90aabc97-7d89-4f7a-84a9-353710f7ef93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1dc33522-e390-4bfa-ae67-dc05aabab78c}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/WebApplication5/Staff_Details.xlsx
+++ b/WebApplication5/Staff_Details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\source\repos\WebApplication5\WebApplication5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,60 +38,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>Staff_Name</t>
-  </si>
-  <si>
-    <t>Staff_Id</t>
-  </si>
-  <si>
-    <t>Staff_Type</t>
-  </si>
-  <si>
-    <t>Staff_Address</t>
-  </si>
-  <si>
-    <t>Staff_ZipCode</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>peter</t>
   </si>
   <si>
-    <t>head master</t>
-  </si>
-  <si>
     <t>tell drive, tx</t>
   </si>
   <si>
     <t>mary</t>
   </si>
   <si>
-    <t>science teacher</t>
-  </si>
-  <si>
     <t>mcneil drive, tx</t>
   </si>
   <si>
     <t>yao</t>
   </si>
   <si>
-    <t>maths teacher</t>
-  </si>
-  <si>
     <t>keeper drive, tx</t>
   </si>
   <si>
     <t>umran</t>
   </si>
   <si>
-    <t>PET</t>
-  </si>
-  <si>
     <t>irish drive, tx</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2023 Aspose Pty Ltd.</t>
+  </si>
+  <si>
+    <t>Student_Name</t>
+  </si>
+  <si>
+    <t>Student_Id</t>
+  </si>
+  <si>
+    <t>Student_Grade</t>
+  </si>
+  <si>
+    <t>Student_Address</t>
+  </si>
+  <si>
+    <t>Student_ZipCode</t>
   </si>
 </sst>
 </file>
@@ -165,10 +153,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -562,47 +547,47 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="topLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.285714285714286" customWidth="1"/>
+    <col min="1" max="1" width="13.285714285714286" customWidth="1"/>
     <col min="2" max="2" width="11.428571428571429" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.714285714285714" customWidth="1"/>
+    <col min="4" max="4" width="14.857142857142858" customWidth="1"/>
+    <col min="5" max="5" width="14.285714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>79415</v>
@@ -610,16 +595,16 @@
     </row>
     <row r="3" spans="1:5" ht="14.4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="C3">
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>79416</v>
@@ -627,16 +612,16 @@
     </row>
     <row r="4" spans="1:5" ht="14.4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>89</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="C4">
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>79876</v>
@@ -644,16 +629,16 @@
     </row>
     <row r="5" spans="1:5" ht="14.4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>78562</v>
@@ -665,16 +650,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ef7f2f68-e6c7-4ea3-b802-cc40fae7c4e4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8628E9C9-CB6F-462F-AF17-8CB814CD9BB1}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1dc33522-e390-4bfa-ae67-dc05aabab78c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78cedd58-fa8c-4010-844c-beda8356bf2d}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -692,7 +677,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
